--- a/excel/row-and-column-based-data.xlsx
+++ b/excel/row-and-column-based-data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thyson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thyson\Documents\Git\public\r\reference\stackoverflow\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="colum-based" sheetId="1" r:id="rId1"/>
-    <sheet name="row-based" sheetId="2" r:id="rId2"/>
+    <sheet name="vertical" sheetId="1" r:id="rId1"/>
+    <sheet name="horizontal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/excel/row-and-column-based-data.xlsx
+++ b/excel/row-and-column-based-data.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
-  <si>
-    <t>row_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>2016-01-03</t>
+  </si>
+  <si>
+    <t>timebucket</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -395,58 +398,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -460,69 +463,69 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
